--- a/data/trans_camb/P23_11_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P23_11_R-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>0,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>-2,66</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>-3,27</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,9</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,55</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,54</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 0,0</t>
+          <t>-3,37; 1,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 0,56</t>
+          <t>-2,85; 2,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 1,83</t>
+          <t>-2,51; 3,41</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 1,01</t>
+          <t>-8,74; 2,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 0,02</t>
+          <t>-8,46; 2,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,08; -0,14</t>
+          <t>-8,16; 2,05</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 1,2</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-4,83; 1,32</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-4,87; 1,43</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-74,98%</t>
+          <t>-38,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-63,33%</t>
+          <t>-9,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-25,4%</t>
+          <t>27,08%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-31,7%</t>
+          <t>-33,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-41,26%</t>
+          <t>-29,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-42,44%</t>
+          <t>-36,68%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-33,99%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-27,71%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-27,6%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 19,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 57,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-62,24; 40,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-62,93; 25,35</t>
+          <t>-69,55; 42,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-74,58; 3,51</t>
+          <t>-68,53; 48,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,2; -0,43</t>
+          <t>-70,89; 38,37</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-68,51; 40,98</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-63,53; 38,37</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-64,41; 39,84</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 2,88</t>
+          <t>-2,96; 4,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 6,13</t>
+          <t>-0,73; 12,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 1,44</t>
+          <t>-1,48; 9,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 2,28</t>
+          <t>-4,31; 5,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 1,27</t>
+          <t>-5,01; 4,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 2,5</t>
+          <t>-5,98; 4,01</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-2,76; 3,83</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 5,81</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-2,49; 4,91</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,73%</t>
+          <t>30,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>34,15%</t>
+          <t>152,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-32,56%</t>
+          <t>112,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-24,43%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-25,8%</t>
+          <t>-6,75%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-9,9%</t>
+          <t>-15,94%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8,36%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>34,17%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16,74%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-76,75; 210,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-66,14; 397,97</t>
+          <t>-61,59; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-71,12; 41,33</t>
+          <t>-72,8; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,93; 59,93</t>
+          <t>-60,92; 172,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,43; 42,16</t>
+          <t>-69,06; 155,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,95; 80,78</t>
+          <t>-74,7; 163,15</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-53,95; 180,44</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-44,54; 284,07</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-51,01; 204,84</t>
         </is>
       </c>
     </row>
@@ -918,27 +1069,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,78</t>
+          <t>24,5</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>7,48</t>
+          <t>1,68</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>14,45</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,21</t>
         </is>
       </c>
     </row>
@@ -956,27 +1122,42 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 44,91</t>
+          <t>0,0; 66,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 13,1</t>
+          <t>0,0; 14,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 12,85</t>
+          <t>-4,8; 10,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 6,35</t>
+          <t>-3,12; 16,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,7; 25,21</t>
+          <t>-4,79; 13,48</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,62; 4,56</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 45,18</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-1,33; 9,96</t>
         </is>
       </c>
     </row>
@@ -999,22 +1180,37 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>145,01%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>139,19%</t>
+          <t>18,66%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>134,13%</t>
+          <t>158,4%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>549,64%</t>
+          <t>70,89%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>17,65%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1256,66%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>191,88%</t>
         </is>
       </c>
     </row>
@@ -1052,7 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-60,38; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-1,73</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,48; 0,21</t>
+          <t>-2,19; 1,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 4,88</t>
+          <t>0,23; 14,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 1,38</t>
+          <t>-0,65; 4,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 1,05</t>
+          <t>-4,8; 2,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 0,09</t>
+          <t>-4,49; 2,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 1,82</t>
+          <t>-4,93; 1,91</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 1,2</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-1,3; 5,68</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 2,23</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-48,86%</t>
+          <t>-1,75%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>18,69%</t>
+          <t>227,27%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-21,09%</t>
+          <t>87,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-21,21%</t>
+          <t>-19,41%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-29,47%</t>
+          <t>-15,42%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-10,09%</t>
+          <t>-25,66%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-16,84%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>29,42%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-5,62%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-88,04; 17,78</t>
+          <t>-79,47; 264,07</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-75,14; 232,13</t>
+          <t>-14,87; 1217,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,08; 28,46</t>
+          <t>-39,56; 571,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-53,0; 23,69</t>
+          <t>-55,55; 43,3</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-56,62; 3,66</t>
+          <t>-52,28; 46,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-44,06; 48,55</t>
+          <t>-57,42; 45,98</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-51,36; 34,08</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-27,2; 156,06</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-45,05; 69,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
